--- a/biology/Histoire de la zoologie et de la botanique/Lester_Frank_Ward/Lester_Frank_Ward.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lester_Frank_Ward/Lester_Frank_Ward.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lester F. Ward (18 juin 1841 à Joliet dans l'Illinois – 18 avril 1913 à Washington) est un botaniste et sociologue américain.
 Il est le premier président de l'American Sociological Association (Association américaine de sociologie).
@@ -512,10 +524,12 @@
           <t>Recherches en sociologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rejetant les options de droite (par exemple : Herbert Spencer) et de gauche (en particulier Karl Marx) en vigueur pour la discipline, avec la publication de Dynamic Sociology (sociologie dynamique) en 1883, Ward a espéré reconstituer l'importance centrale de l'expérimentation et de la méthode scientifique à la sociologie. Pour Ward, la science n'était pas froide ou impersonnelle mais centrée sur l'humain. Comme il l'a indiqué dans la préface à ce livre : « The real object of science is to benefit man. A science which fails to do this, however agreeable its study, is lifeless. Sociology, which of all sciences should benefit man most, is in danger of falling into the class of polite amusements, or dead sciences. It is the object of this work to point out a method by which the breath of life may be breathed into its nostrils. » (L'objet vrai de la science est de profiter à l'homme. Une science qui ne vise pas cela, bien qu'agréable dans son étude, reste sans vie. La sociologie, qui de toutes les sciences devrait profiter le plus à l'homme, est en danger de tomber dans la classe des amusements sophistiqués ou des sciences mortes. C'est l'objet de ce travail que de préciser une méthode par laquelle le souffle de la vie peut être respiré.)
-Ward a théorisé qu'on pourrait minimiser ou éliminer la pauvreté par l'intervention systématique de la société. L'humanité n'était pas délaissée par rapport à la force impersonnelle de la nature et son évolution : par la puissance de l'esprit, on pourrait prendre le contrôle de l'évolution de la société humaine. Cette théorie est connue sous le nom de Telesis[1],[2].
+Ward a théorisé qu'on pourrait minimiser ou éliminer la pauvreté par l'intervention systématique de la société. L'humanité n'était pas délaissée par rapport à la force impersonnelle de la nature et son évolution : par la puissance de l'esprit, on pourrait prendre le contrôle de l'évolution de la société humaine. Cette théorie est connue sous le nom de Telesis,.
 Une sociologie qui dirigerait, intelligemment et scientifiquement, le développement économique et social de la société pourrait instituer un système universel d'éducation, réguler la concurrence, relier les individus entre eux sur la base d'égales opportunités et sur la coopération, favoriser le bonheur et liberté de chacun.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Féminisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ward était un excellent avocat pour l'égalité des droits des femmes. Il a même théorisé que les femmes étaient naturellement supérieures aux hommes, bien au-delà du bien-pensant des sociologues traditionnels. Ward  est maintenant considéré par des historiens comme un auteur féministe tel qu'Ann Taylor Allen.
 </t>
@@ -576,7 +592,9 @@
           <t>Contestation du darwinisme social</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que Marx, le communisme et le socialisme ne se furent jamais vraiment popularisés aux États-Unis, Spencer et les théories de darwinisme social (Ward n'aimait pas ce terme, surtout pour Spencer) devinrent célèbres.
 Ward se plaça dans l'opposition directe au disciple américain de Spencer, William Graham Sumner, qui était devenu, le savant le mieux connu du sociologue américain et de loin le plus lu par les fervents partisans du laissez-faire et de la survie du mieux adapté.
@@ -609,7 +627,9 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Every implement or utensil, every mechanical device ... is a triumph of mind over the physical forces of nature in ceaseless and aimless competition. All human institutions--religion, government, law, marriage, custom--together with innumerable other modes of regulating social, industrial and commercial life are, broadly viewed, only so many ways of meeting and checkmating the principle of competition as it manifests itself in society. »
@@ -651,15 +671,54 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Botanique
-(en) « Guide to the Flora of Washington, D.C and Vicinity », Washington, 1881, 264 p.
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) « Guide to the Flora of Washington, D.C and Vicinity », Washington, 1881, 264 p.
 (en) Sketch of Paleo-Botany, Washington, 1885.
 (en) « Synopsis of the Flora of the Laramie Group », dans Annual Report of the U.S. Geological Survey, n° 6, 1886, p. 399–557.
 « Types of the Laramie Flora », dans Bulletin of the United States National Museum, n° 37, 1887, p. 363–469.
 avec William M. Fontaine, Arthur Bibbins et G. R. Wieland :
-Status of the Mesozoic floras of the United States, Washington, 1905, 2 vol.
-Sociologie
-(en) Dynamic Sociology. Or Applied social science as based upon statical sociology and the less complex sciences, 1883, New York, D. Appleton &amp; Co. 2 vols. Volume I en ligne, Volume II en ligne.
+Status of the Mesozoic floras of the United States, Washington, 1905, 2 vol.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lester_Frank_Ward</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lester_Frank_Ward</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principaux travaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sociologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Dynamic Sociology. Or Applied social science as based upon statical sociology and the less complex sciences, 1883, New York, D. Appleton &amp; Co. 2 vols. Volume I en ligne, Volume II en ligne.
 (en) Neo-Darwinism and Neo-Lamarckism, Washington: Gedney &amp; Roberts Co., 1891.
 (en) The Psychic Factors of Civilization, Boston, Ginn &amp; Co., 1893 Lire en ligne.
 (en) « Contributions to Social Philosophy » : série d'articles publiés dans la revue American Journal of Sociology de 1895 à 1897 :
